--- a/Planning or Mock-up Files/Data Fields Details.xlsx
+++ b/Planning or Mock-up Files/Data Fields Details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bd17ddbefc5e437/UCLA/Y2Q3/CS M117/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\UCLA\Y2Q3\CS M117\Planning or Mock-up Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,10 +23,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+  <si>
+    <t>"User"</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Unique_UID</t>
+  </si>
+  <si>
+    <t>Group_ID</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Time Availability</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Admin UID</t>
+  </si>
+  <si>
+    <t>Users UID</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>User who posted it</t>
+  </si>
+  <si>
+    <t>Time Stamp</t>
+  </si>
+  <si>
+    <t>Message Contents</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,14 +444,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>